--- a/data/trans_orig/P04D$aparatos-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P04D$aparatos-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>691320</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>658738</v>
+        <v>658509</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>719622</v>
+        <v>722084</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6649314837405941</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6335930110947404</v>
+        <v>0.6333730775989759</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6921534823171795</v>
+        <v>0.6945212431736331</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>702</v>
@@ -764,19 +764,19 @@
         <v>767894</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>739206</v>
+        <v>734137</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>799619</v>
+        <v>797939</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6882492698453887</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6625364904829834</v>
+        <v>0.6579933044104249</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7166836044987233</v>
+        <v>0.7151779563105232</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1350</v>
@@ -785,19 +785,19 @@
         <v>1459214</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1416369</v>
+        <v>1415819</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1506984</v>
+        <v>1503999</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6770016616459671</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6571237583875285</v>
+        <v>0.6568686473831389</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6991644952944509</v>
+        <v>0.6977796057317204</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>23735</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15465</v>
+        <v>16055</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>36004</v>
+        <v>34165</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02282866524214198</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01487496029040536</v>
+        <v>0.01544218377792017</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03462945120067232</v>
+        <v>0.03286122020687612</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>29</v>
@@ -835,19 +835,19 @@
         <v>30343</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20606</v>
+        <v>21258</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>42565</v>
+        <v>43246</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02719600888529533</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01846865246665278</v>
+        <v>0.01905270507374517</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03815011036880145</v>
+        <v>0.03876052701265575</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>52</v>
@@ -856,19 +856,19 @@
         <v>54078</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>41888</v>
+        <v>40937</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>70937</v>
+        <v>69930</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02508936934629027</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01943396912043267</v>
+        <v>0.01899289481942436</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03291104543450155</v>
+        <v>0.03244415043204758</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>268559</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>240228</v>
+        <v>240117</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>296233</v>
+        <v>296682</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2583076326976725</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2310578436772305</v>
+        <v>0.2309518656918842</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2849253595321153</v>
+        <v>0.2853572053205327</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>239</v>
@@ -906,19 +906,19 @@
         <v>253322</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>226474</v>
+        <v>223572</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>282414</v>
+        <v>276946</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2270481837483201</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2029840914675133</v>
+        <v>0.2003831636038952</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2531221936892213</v>
+        <v>0.2482211936388149</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>491</v>
@@ -927,19 +927,19 @@
         <v>521881</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>477503</v>
+        <v>485720</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>561913</v>
+        <v>568050</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2421265463652514</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2215374254543881</v>
+        <v>0.2253494333042967</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.260699107993247</v>
+        <v>0.2635464752566354</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>59266</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45071</v>
+        <v>45694</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>76320</v>
+        <v>77517</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05700399535236184</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04335047727751261</v>
+        <v>0.04395014179089947</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07340708694171347</v>
+        <v>0.0745581048594413</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>62</v>
@@ -977,19 +977,19 @@
         <v>69586</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>54072</v>
+        <v>53894</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>86434</v>
+        <v>88248</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0623683688020705</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04846388135517538</v>
+        <v>0.04830398788900986</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07746941519988959</v>
+        <v>0.07909475035190865</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>117</v>
@@ -998,19 +998,19 @@
         <v>128852</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>105413</v>
+        <v>107848</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>151042</v>
+        <v>151114</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05978080021701962</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04890652751181328</v>
+        <v>0.05003619940203492</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07007577933484069</v>
+        <v>0.07010911953334696</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>653366</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>621787</v>
+        <v>624026</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>679272</v>
+        <v>682149</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.669987118945232</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6376050067618141</v>
+        <v>0.6399009137767024</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6965519363472148</v>
+        <v>0.699502403041999</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>692</v>
@@ -1052,19 +1052,19 @@
         <v>744077</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>711927</v>
+        <v>709829</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>777546</v>
+        <v>777215</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6799803673029623</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6506005333765271</v>
+        <v>0.6486825381855573</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7105666368040996</v>
+        <v>0.7102645335095549</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1306</v>
@@ -1073,19 +1073,19 @@
         <v>1397443</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1353317</v>
+        <v>1356363</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1445057</v>
+        <v>1437993</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.675271233212526</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6539482801115525</v>
+        <v>0.6554202148579532</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6982792079559947</v>
+        <v>0.6948654811990889</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>30311</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>21178</v>
+        <v>21019</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>42805</v>
+        <v>41675</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03108188361515372</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02171649172443227</v>
+        <v>0.02155319583171219</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04389388218884643</v>
+        <v>0.04273527623745927</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>30</v>
@@ -1123,19 +1123,19 @@
         <v>32088</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>22246</v>
+        <v>21751</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>46068</v>
+        <v>44787</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02932421747382337</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02032967141273526</v>
+        <v>0.01987694799998489</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04209936540171989</v>
+        <v>0.04092905416357096</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>60</v>
@@ -1144,19 +1144,19 @@
         <v>62399</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>47480</v>
+        <v>48300</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>78564</v>
+        <v>79282</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03015248524516737</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02294306445911971</v>
+        <v>0.02333932349188453</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03796377323342275</v>
+        <v>0.03831046986462549</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>249594</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>223086</v>
+        <v>223598</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>276333</v>
+        <v>279154</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2559429519048665</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2287606781148435</v>
+        <v>0.2292860794310352</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.283362949615469</v>
+        <v>0.2862551211371241</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>258</v>
@@ -1194,19 +1194,19 @@
         <v>274885</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>245524</v>
+        <v>246001</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>304148</v>
+        <v>307188</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2512057994975733</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2243739963835511</v>
+        <v>0.2248097230838248</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2779479931674853</v>
+        <v>0.2807262453100104</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>497</v>
@@ -1215,19 +1215,19 @@
         <v>524479</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>485223</v>
+        <v>486022</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>566352</v>
+        <v>567176</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2534380952530891</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2344687869577228</v>
+        <v>0.234854898832268</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.273671988127414</v>
+        <v>0.2740702784956002</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>41922</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>30058</v>
+        <v>30353</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>56953</v>
+        <v>57390</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04298804553474778</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03082287687626033</v>
+        <v>0.0311250709986742</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05840230695897348</v>
+        <v>0.05884991298417616</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>45</v>
@@ -1265,19 +1265,19 @@
         <v>48281</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>36023</v>
+        <v>36125</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>62846</v>
+        <v>64128</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04412180686525717</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03291966363880506</v>
+        <v>0.03301322064255335</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05743228522517869</v>
+        <v>0.05860416195775194</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>84</v>
@@ -1286,19 +1286,19 @@
         <v>90202</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>70445</v>
+        <v>71082</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>110278</v>
+        <v>109774</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04358754273603736</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03404021437892169</v>
+        <v>0.03434798894981102</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05328842694779157</v>
+        <v>0.05304477907593924</v>
       </c>
     </row>
     <row r="12">
@@ -1319,19 +1319,19 @@
         <v>582647</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>553745</v>
+        <v>553723</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>611240</v>
+        <v>611968</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.658272777887499</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6256194936555101</v>
+        <v>0.6255946865035967</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6905768777832699</v>
+        <v>0.6913992561935725</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>533</v>
@@ -1340,19 +1340,19 @@
         <v>573358</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>548393</v>
+        <v>544832</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>601702</v>
+        <v>601412</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6546706703009103</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6261656860878159</v>
+        <v>0.6220997300401424</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6870340735345775</v>
+        <v>0.6867031421271631</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1076</v>
@@ -1361,19 +1361,19 @@
         <v>1156005</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1115369</v>
+        <v>1110666</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1195828</v>
+        <v>1195923</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6564812558698931</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6334042969837612</v>
+        <v>0.6307335759019007</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.679096219458699</v>
+        <v>0.6791503038064086</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>23158</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15253</v>
+        <v>15000</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34821</v>
+        <v>35394</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02616352347192346</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01723276402576866</v>
+        <v>0.01694697891084674</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03934074851844955</v>
+        <v>0.0399875521394623</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -1411,19 +1411,19 @@
         <v>23123</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15045</v>
+        <v>14208</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35382</v>
+        <v>34784</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02640188508386087</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01717888692721966</v>
+        <v>0.0162227524709595</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04039942215625782</v>
+        <v>0.03971757487890222</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>44</v>
@@ -1432,19 +1432,19 @@
         <v>46280</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>33932</v>
+        <v>34124</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>60682</v>
+        <v>59548</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02628207353342852</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01926967539832006</v>
+        <v>0.01937853503819245</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03446073595763759</v>
+        <v>0.03381686499527527</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>263846</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>234869</v>
+        <v>235897</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>292279</v>
+        <v>292180</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2980924022312005</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2653544909141783</v>
+        <v>0.2665160905848664</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3302157160363755</v>
+        <v>0.3301037336519005</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>248</v>
@@ -1482,19 +1482,19 @@
         <v>260601</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>234041</v>
+        <v>234076</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>288298</v>
+        <v>289274</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2975587751987994</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2672318656554966</v>
+        <v>0.2672724480689626</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3291839660062194</v>
+        <v>0.3302982687803842</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>496</v>
@@ -1503,19 +1503,19 @@
         <v>524447</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>485640</v>
+        <v>485278</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>566649</v>
+        <v>571072</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2978270007808675</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2757891352440301</v>
+        <v>0.2755834049024746</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3217931732285549</v>
+        <v>0.3243048342894855</v>
       </c>
     </row>
     <row r="15">
@@ -1532,19 +1532,19 @@
         <v>20562</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12652</v>
+        <v>13374</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>31720</v>
+        <v>31995</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02323087901278996</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01429457844868726</v>
+        <v>0.01510973829973943</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0358373984202742</v>
+        <v>0.0361474827092897</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>23</v>
@@ -1553,19 +1553,19 @@
         <v>23972</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>15746</v>
+        <v>15528</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>35962</v>
+        <v>34421</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02737183017535421</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01797901791639864</v>
+        <v>0.01773036880293178</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.04106190574807096</v>
+        <v>0.03930213794088551</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>43</v>
@@ -1574,19 +1574,19 @@
         <v>44534</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>32041</v>
+        <v>33249</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>58318</v>
+        <v>58782</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02529039694867437</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0181958961416244</v>
+        <v>0.01888182030441728</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.03311802615708574</v>
+        <v>0.03338160475861825</v>
       </c>
     </row>
     <row r="16">
@@ -1607,19 +1607,19 @@
         <v>225362</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>199803</v>
+        <v>203145</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>249197</v>
+        <v>250958</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4488769343436097</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3979684727273781</v>
+        <v>0.4046246202311101</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4963529807426209</v>
+        <v>0.4998597132839583</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>197</v>
@@ -1628,19 +1628,19 @@
         <v>216482</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>195559</v>
+        <v>193268</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>239809</v>
+        <v>238484</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4781649219249395</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.431950039318236</v>
+        <v>0.4268891877888883</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5296874221232053</v>
+        <v>0.5267626505648727</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>407</v>
@@ -1649,19 +1649,19 @@
         <v>441844</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>407965</v>
+        <v>411188</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>476090</v>
+        <v>478656</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4627644636068673</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.427280897206689</v>
+        <v>0.430656711279629</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4986313364031977</v>
+        <v>0.5013191060040727</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>30326</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>20468</v>
+        <v>20565</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>44374</v>
+        <v>44294</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06040378066280013</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04076833092783886</v>
+        <v>0.04096204736184424</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08838388723351591</v>
+        <v>0.08822560033944005</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -1699,19 +1699,19 @@
         <v>10022</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4982</v>
+        <v>5007</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18059</v>
+        <v>17857</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02213549699975488</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01100511645764504</v>
+        <v>0.01105969571153773</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03988784846269902</v>
+        <v>0.03944174856093904</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>38</v>
@@ -1720,19 +1720,19 @@
         <v>40348</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>29359</v>
+        <v>28395</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>55010</v>
+        <v>53684</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04225805085636003</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03074944804939615</v>
+        <v>0.02973964057942966</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05761458220825087</v>
+        <v>0.05622562357902382</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>228038</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>206298</v>
+        <v>203500</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>252888</v>
+        <v>251510</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4542083828113436</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4109054775892464</v>
+        <v>0.4053318399489169</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5037044942600406</v>
+        <v>0.5009583715598183</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>193</v>
@@ -1770,19 +1770,19 @@
         <v>212831</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>188730</v>
+        <v>191132</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>232820</v>
+        <v>235638</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4700996281530565</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4168655066487665</v>
+        <v>0.4221711359200097</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5142502344453445</v>
+        <v>0.5204747822610918</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>400</v>
@@ -1791,19 +1791,19 @@
         <v>440870</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>406668</v>
+        <v>406826</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>473565</v>
+        <v>472277</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4617435585928755</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4259226963421359</v>
+        <v>0.4260880647136531</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4959868772456727</v>
+        <v>0.4946381536258406</v>
       </c>
     </row>
     <row r="19">
@@ -1820,19 +1820,19 @@
         <v>19268</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11740</v>
+        <v>11175</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>31432</v>
+        <v>31175</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03837724872168937</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0233846676665863</v>
+        <v>0.02225792200228124</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06260673848937691</v>
+        <v>0.06209509322655322</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -1841,19 +1841,19 @@
         <v>16635</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9841</v>
+        <v>9691</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27893</v>
+        <v>27206</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03674352243466956</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02173658409737117</v>
+        <v>0.02140502038410886</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06160948018224629</v>
+        <v>0.06009206003444185</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>31</v>
@@ -1862,19 +1862,19 @@
         <v>35903</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>24575</v>
+        <v>24492</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>50757</v>
+        <v>50910</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03760258226308968</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02573825145183976</v>
+        <v>0.0256511184928068</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05316024045587556</v>
+        <v>0.05332069379815907</v>
       </c>
     </row>
     <row r="20">
@@ -1895,19 +1895,19 @@
         <v>2152696</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2093347</v>
+        <v>2095615</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2207098</v>
+        <v>2208539</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6327640462269292</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6153189893848062</v>
+        <v>0.6159857660518129</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6487551913704186</v>
+        <v>0.6491785411148265</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2124</v>
@@ -1916,19 +1916,19 @@
         <v>2301811</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2243207</v>
+        <v>2242129</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2359089</v>
+        <v>2358155</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.65050207958115</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6339401623864777</v>
+        <v>0.6336356966133641</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6666889394527113</v>
+        <v>0.6664251130383697</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4139</v>
@@ -1937,19 +1937,19 @@
         <v>4454506</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4370569</v>
+        <v>4366208</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4543346</v>
+        <v>4533797</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6418074438501601</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6297137405496346</v>
+        <v>0.6290853318574748</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6546074630483167</v>
+        <v>0.653231704042104</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>107529</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>87290</v>
+        <v>88309</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>128971</v>
+        <v>129762</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03160721392201486</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02565807783055476</v>
+        <v>0.02595757047790933</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03790982236799978</v>
+        <v>0.03814217230831762</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>90</v>
@@ -1987,19 +1987,19 @@
         <v>95576</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>76703</v>
+        <v>76736</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>117731</v>
+        <v>117116</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02701012714787738</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02167658548057077</v>
+        <v>0.02168584467137723</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03327129988839648</v>
+        <v>0.03309753462874433</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>194</v>
@@ -2008,19 +2008,19 @@
         <v>203105</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>175996</v>
+        <v>175615</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>233554</v>
+        <v>232245</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02926347700502859</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02535765528697215</v>
+        <v>0.02530267800965303</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03365057422449574</v>
+        <v>0.03346201417907278</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>1010037</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>958963</v>
+        <v>957080</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1065973</v>
+        <v>1064677</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2968906764092333</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2818778831795438</v>
+        <v>0.2813244510725544</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3133325959029263</v>
+        <v>0.3129515880700533</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>938</v>
@@ -2058,19 +2058,19 @@
         <v>1001639</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>947305</v>
+        <v>949616</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1056204</v>
+        <v>1060873</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2830676387535169</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2677125410193461</v>
+        <v>0.2683656084730531</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2984878842321755</v>
+        <v>0.2998075429563976</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1884</v>
@@ -2079,19 +2079,19 @@
         <v>2011676</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1928811</v>
+        <v>1934878</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2090362</v>
+        <v>2092586</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2898432645916323</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2779040758749346</v>
+        <v>0.2787781437250054</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3011804112826864</v>
+        <v>0.3015008414641394</v>
       </c>
     </row>
     <row r="23">
@@ -2108,19 +2108,19 @@
         <v>141017</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>115599</v>
+        <v>119480</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>164646</v>
+        <v>167385</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04145071845047595</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03397921108280808</v>
+        <v>0.03512004652747849</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0483961000386869</v>
+        <v>0.04920129690817152</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>145</v>
@@ -2129,19 +2129,19 @@
         <v>158474</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>133124</v>
+        <v>136522</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>186462</v>
+        <v>186761</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04478539161974578</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0376215147399197</v>
+        <v>0.03858182080524124</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05269493719918937</v>
+        <v>0.05277952138807127</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>275</v>
@@ -2150,19 +2150,19 @@
         <v>299491</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>264470</v>
+        <v>267883</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>339138</v>
+        <v>339746</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04315083789500562</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03810496849839108</v>
+        <v>0.0385967720585528</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04886312918925593</v>
+        <v>0.04895081794664814</v>
       </c>
     </row>
     <row r="24">
@@ -2423,19 +2423,19 @@
         <v>712298</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>679904</v>
+        <v>679470</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>745744</v>
+        <v>746209</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6314715682116004</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6027537058901832</v>
+        <v>0.6023687483128963</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6611225883794899</v>
+        <v>0.6615341634874166</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>761</v>
@@ -2444,19 +2444,19 @@
         <v>799270</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>764914</v>
+        <v>765048</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>836823</v>
+        <v>833590</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.634562286700966</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6072863067759851</v>
+        <v>0.6073922658477737</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6643770408511281</v>
+        <v>0.6618100033230264</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1447</v>
@@ -2465,19 +2465,19 @@
         <v>1511568</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1466667</v>
+        <v>1465864</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1559396</v>
+        <v>1558514</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6331020826367778</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6142958748955096</v>
+        <v>0.6139595235954663</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6531340997270025</v>
+        <v>0.6527648283022013</v>
       </c>
     </row>
     <row r="5">
@@ -2494,19 +2494,19 @@
         <v>5558</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1878</v>
+        <v>1920</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11994</v>
+        <v>13252</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.004927098226990867</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.001664714688610118</v>
+        <v>0.001701812113180863</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01063332479207638</v>
+        <v>0.01174868514123177</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -2515,19 +2515,19 @@
         <v>13183</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7281</v>
+        <v>7184</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20882</v>
+        <v>22604</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01046664807371413</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.00578075657912362</v>
+        <v>0.005703334843655008</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01657891056560087</v>
+        <v>0.0179459190072338</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>18</v>
@@ -2536,19 +2536,19 @@
         <v>18741</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10935</v>
+        <v>10939</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>29369</v>
+        <v>28197</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0078494982984143</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.00457999673296131</v>
+        <v>0.004581703916224157</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01230071880535658</v>
+        <v>0.01180984166748812</v>
       </c>
     </row>
     <row r="6">
@@ -2565,19 +2565,19 @@
         <v>209400</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>184495</v>
+        <v>184602</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>237432</v>
+        <v>236839</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1856385033871721</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1635601134546964</v>
+        <v>0.163654660347409</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2104895618504716</v>
+        <v>0.2099642683179144</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>236</v>
@@ -2586,19 +2586,19 @@
         <v>255077</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>226473</v>
+        <v>225007</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>286264</v>
+        <v>285313</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2025125780645929</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1798028586228827</v>
+        <v>0.1786391484127805</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2272724665510817</v>
+        <v>0.2265180063277409</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>433</v>
@@ -2607,19 +2607,19 @@
         <v>464477</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>426101</v>
+        <v>426557</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>507232</v>
+        <v>509250</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1945404536190431</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1784674053062436</v>
+        <v>0.1786581051987398</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2124479688286174</v>
+        <v>0.213293150587171</v>
       </c>
     </row>
     <row r="7">
@@ -2636,19 +2636,19 @@
         <v>203962</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>176444</v>
+        <v>177585</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>231425</v>
+        <v>232416</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.180818243135575</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.156422515287669</v>
+        <v>0.1574335709620642</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.205164518238803</v>
+        <v>0.2060430470763513</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>182</v>
@@ -2657,19 +2657,19 @@
         <v>196106</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>170510</v>
+        <v>170923</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>223816</v>
+        <v>223549</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1556941847188393</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1353722055967171</v>
+        <v>0.1357003518733672</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1776940039048483</v>
+        <v>0.1774818433193076</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>363</v>
@@ -2678,19 +2678,19 @@
         <v>400069</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>363875</v>
+        <v>361621</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>434968</v>
+        <v>438707</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1675639982703635</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1524045942920861</v>
+        <v>0.1514607486365428</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1821812460335889</v>
+        <v>0.1837472176370425</v>
       </c>
     </row>
     <row r="8">
@@ -2711,19 +2711,19 @@
         <v>456636</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>428298</v>
+        <v>428467</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>487595</v>
+        <v>487739</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5024466494749267</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4712657662358572</v>
+        <v>0.4714513369949106</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5365112309862223</v>
+        <v>0.5366699987485384</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>501</v>
@@ -2732,19 +2732,19 @@
         <v>527801</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>495012</v>
+        <v>498391</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>558535</v>
+        <v>560781</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.524405459848116</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4918269995589598</v>
+        <v>0.495184515125662</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5549416176505717</v>
+        <v>0.5571735051315715</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>956</v>
@@ -2753,19 +2753,19 @@
         <v>984437</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>937531</v>
+        <v>939006</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1026677</v>
+        <v>1028206</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5139858335780573</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4894956468550593</v>
+        <v>0.4902655045775131</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5360397477358706</v>
+        <v>0.5368383380663174</v>
       </c>
     </row>
     <row r="9">
@@ -2782,19 +2782,19 @@
         <v>19654</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12459</v>
+        <v>12682</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>29453</v>
+        <v>29302</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02162518666347136</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0137090416243794</v>
+        <v>0.01395449784646136</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03240832855197175</v>
+        <v>0.03224168539140009</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>22</v>
@@ -2803,19 +2803,19 @@
         <v>23371</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>15537</v>
+        <v>15100</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>34829</v>
+        <v>35401</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02322041108041791</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01543663422600685</v>
+        <v>0.01500288162954941</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03460466379421888</v>
+        <v>0.03517300694804679</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>42</v>
@@ -2824,19 +2824,19 @@
         <v>43024</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>31590</v>
+        <v>32140</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>57785</v>
+        <v>58635</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0224634646903826</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01649331880939785</v>
+        <v>0.01678091736248319</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03017025356749209</v>
+        <v>0.0306141559361676</v>
       </c>
     </row>
     <row r="10">
@@ -2853,19 +2853,19 @@
         <v>260728</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>234444</v>
+        <v>234059</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>288384</v>
+        <v>289060</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.286884798815427</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2579637668913663</v>
+        <v>0.257540724150101</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3173146740993935</v>
+        <v>0.3180592085011262</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>265</v>
@@ -2874,19 +2874,19 @@
         <v>284189</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>255361</v>
+        <v>256068</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>312653</v>
+        <v>313362</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2823605954755148</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2537185253360598</v>
+        <v>0.2544210811630763</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3106412678555951</v>
+        <v>0.3113455741994635</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>511</v>
@@ -2895,19 +2895,19 @@
         <v>544917</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>508054</v>
+        <v>503047</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>587258</v>
+        <v>583444</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.28450736513974</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2652610137879453</v>
+        <v>0.2626467809129649</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3066142680192877</v>
+        <v>0.3046228584450378</v>
       </c>
     </row>
     <row r="11">
@@ -2924,19 +2924,19 @@
         <v>172705</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>149393</v>
+        <v>148110</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>197450</v>
+        <v>195956</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1900307468227416</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1643808453233095</v>
+        <v>0.1629689296613087</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.217258854868228</v>
+        <v>0.215614167695189</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>164</v>
@@ -2945,19 +2945,19 @@
         <v>172039</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>150692</v>
+        <v>149410</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>197796</v>
+        <v>198681</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1709318146557504</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1497226941383539</v>
+        <v>0.1484487367693532</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1965237063115187</v>
+        <v>0.1974026372551236</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>325</v>
@@ -2966,19 +2966,19 @@
         <v>344743</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>315667</v>
+        <v>309883</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>380216</v>
+        <v>379213</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1799944064790409</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1648135359473848</v>
+        <v>0.1617933275629039</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1985148984681415</v>
+        <v>0.1979913370043573</v>
       </c>
     </row>
     <row r="12">
@@ -2999,19 +2999,19 @@
         <v>381697</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>350710</v>
+        <v>353032</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>409632</v>
+        <v>411328</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4633603375076992</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4257438407039548</v>
+        <v>0.4285617406814866</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4972712593965942</v>
+        <v>0.4993306187347576</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>310</v>
@@ -3020,19 +3020,19 @@
         <v>324305</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>298883</v>
+        <v>298335</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>352290</v>
+        <v>352791</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4205969193412581</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3876263814777648</v>
+        <v>0.3869154834997877</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4568915862423272</v>
+        <v>0.4575407805490508</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>680</v>
@@ -3041,19 +3041,19 @@
         <v>706002</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>667910</v>
+        <v>665394</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>748626</v>
+        <v>749526</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4426851848060362</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4188000586789956</v>
+        <v>0.4172226546255017</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4694113954471575</v>
+        <v>0.4699758283952622</v>
       </c>
     </row>
     <row r="13">
@@ -3070,19 +3070,19 @@
         <v>42005</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31332</v>
+        <v>29898</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58020</v>
+        <v>56510</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05099163270651158</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03803589229290283</v>
+        <v>0.03629485647090589</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07043274972337325</v>
+        <v>0.06860048329960175</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -3091,19 +3091,19 @@
         <v>25386</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16597</v>
+        <v>16690</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37978</v>
+        <v>38519</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03292390314778038</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02152436693534941</v>
+        <v>0.02164501193199787</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04925443251387891</v>
+        <v>0.04995620645122437</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>63</v>
@@ -3112,19 +3112,19 @@
         <v>67391</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>52905</v>
+        <v>52385</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>87656</v>
+        <v>85731</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0422562910613419</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03317283901002659</v>
+        <v>0.03284711850293118</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05496287479933716</v>
+        <v>0.05375627822074024</v>
       </c>
     </row>
     <row r="14">
@@ -3141,19 +3141,19 @@
         <v>312712</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>283481</v>
+        <v>282890</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>343345</v>
+        <v>339466</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3796158513843297</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.344130699820384</v>
+        <v>0.3434136877018052</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4168031256354172</v>
+        <v>0.412094089301163</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>307</v>
@@ -3162,19 +3162,19 @@
         <v>329858</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>296622</v>
+        <v>302717</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>356681</v>
+        <v>357926</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.427799116028953</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.384694238234399</v>
+        <v>0.3925991196757627</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4625861291690413</v>
+        <v>0.4641998921807254</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>603</v>
@@ -3183,19 +3183,19 @@
         <v>642570</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>603630</v>
+        <v>600963</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>682902</v>
+        <v>682198</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4029113781898553</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3784945613850035</v>
+        <v>0.3768224532198434</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4282004879559059</v>
+        <v>0.4277589906069744</v>
       </c>
     </row>
     <row r="15">
@@ -3212,19 +3212,19 @@
         <v>87345</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>70561</v>
+        <v>69680</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>108198</v>
+        <v>105459</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1060321784014594</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.08565763974279302</v>
+        <v>0.08458809452457844</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.131346902007379</v>
+        <v>0.1280220123568309</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>88</v>
@@ -3233,19 +3233,19 @@
         <v>92468</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>75573</v>
+        <v>76827</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>111893</v>
+        <v>111463</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1199232063644264</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.09801140898749029</v>
+        <v>0.09963805790830946</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1451161960856802</v>
+        <v>0.1445579939380452</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>170</v>
@@ -3254,19 +3254,19 @@
         <v>179813</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>156795</v>
+        <v>154058</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>208039</v>
+        <v>205585</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1127481785864679</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.098315010073297</v>
+        <v>0.09659887174883867</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1304471104236447</v>
+        <v>0.1289078257391008</v>
       </c>
     </row>
     <row r="16">
@@ -3287,19 +3287,19 @@
         <v>235630</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>212352</v>
+        <v>213539</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>258681</v>
+        <v>258609</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4650276008828792</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4190865252691425</v>
+        <v>0.4214306925406915</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5105197665704878</v>
+        <v>0.5103779048987067</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>180</v>
@@ -3308,19 +3308,19 @@
         <v>194386</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>170752</v>
+        <v>171456</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>216131</v>
+        <v>216520</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3969514469983897</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.348688526424467</v>
+        <v>0.35012649526634</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4413564357814831</v>
+        <v>0.44215067454581</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>396</v>
@@ -3329,19 +3329,19 @@
         <v>430016</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>399282</v>
+        <v>396433</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>463578</v>
+        <v>460436</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.431570377226159</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4007256433855971</v>
+        <v>0.3978661087354542</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4652537972020083</v>
+        <v>0.4621002260970848</v>
       </c>
     </row>
     <row r="17">
@@ -3358,19 +3358,19 @@
         <v>26829</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>18388</v>
+        <v>17653</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>38553</v>
+        <v>38039</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05294827433176082</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03628885217837811</v>
+        <v>0.0348390533583624</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0760863520611894</v>
+        <v>0.07507160201764447</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>25</v>
@@ -3379,19 +3379,19 @@
         <v>26013</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17272</v>
+        <v>17760</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>38060</v>
+        <v>38674</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05312026688970493</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03527100995919485</v>
+        <v>0.03626756811464483</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.077720710910714</v>
+        <v>0.07897580388925197</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>51</v>
@@ -3400,19 +3400,19 @@
         <v>52842</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>40224</v>
+        <v>40106</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>68126</v>
+        <v>69294</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05303280310064796</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04036947187917184</v>
+        <v>0.0402514098016798</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06837238817692522</v>
+        <v>0.06954409289665613</v>
       </c>
     </row>
     <row r="18">
@@ -3429,19 +3429,19 @@
         <v>177095</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>155648</v>
+        <v>154971</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>201284</v>
+        <v>197172</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3495060795472523</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.307179877736849</v>
+        <v>0.3058433073093175</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3972436918412572</v>
+        <v>0.3891291744390248</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>201</v>
@@ -3450,19 +3450,19 @@
         <v>218111</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>194945</v>
+        <v>195789</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>243714</v>
+        <v>241075</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4453992311753378</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3980918651375718</v>
+        <v>0.3998159419722081</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.497683058321787</v>
+        <v>0.4922935229596533</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>369</v>
@@ -3471,19 +3471,19 @@
         <v>395206</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>362862</v>
+        <v>364586</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>427228</v>
+        <v>428017</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3966344561975028</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3641737944915268</v>
+        <v>0.3659043805496365</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4287724108988317</v>
+        <v>0.4295638401587865</v>
       </c>
     </row>
     <row r="19">
@@ -3500,19 +3500,19 @@
         <v>67147</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>51898</v>
+        <v>52712</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>85335</v>
+        <v>85930</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1325180452381077</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1024241562715866</v>
+        <v>0.1040301787408657</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1684126911483122</v>
+        <v>0.1695870433004315</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>50</v>
@@ -3521,19 +3521,19 @@
         <v>52289</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>40119</v>
+        <v>39583</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>66542</v>
+        <v>68151</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1067773338725274</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08192584392972919</v>
+        <v>0.08083080052123803</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1358838719625258</v>
+        <v>0.1391703345859177</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>111</v>
@@ -3542,19 +3542,19 @@
         <v>119436</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>100690</v>
+        <v>99818</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>141020</v>
+        <v>141656</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1198673197182349</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1010542105595243</v>
+        <v>0.1001790493278185</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1415296833248016</v>
+        <v>0.1421680030146348</v>
       </c>
     </row>
     <row r="20">
@@ -3575,19 +3575,19 @@
         <v>1786261</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1724764</v>
+        <v>1727408</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1843930</v>
+        <v>1844222</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5304757124215861</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.512212488657217</v>
+        <v>0.5129977550134432</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.547601768016724</v>
+        <v>0.5476886030892875</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1752</v>
@@ -3596,19 +3596,19 @@
         <v>1845762</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1787234</v>
+        <v>1781878</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1908290</v>
+        <v>1904567</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.523354309799775</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5067592324303233</v>
+        <v>0.5052405355137096</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5410839212596968</v>
+        <v>0.5400281070500408</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3479</v>
@@ -3617,19 +3617,19 @@
         <v>3632024</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3547031</v>
+        <v>3545616</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3710066</v>
+        <v>3717365</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5268326261827903</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5145043252684416</v>
+        <v>0.5142990609773368</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5381528912934175</v>
+        <v>0.5392115515053565</v>
       </c>
     </row>
     <row r="21">
@@ -3646,19 +3646,19 @@
         <v>94045</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>75979</v>
+        <v>77367</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>113665</v>
+        <v>117672</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02792906108259846</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02256391937075262</v>
+        <v>0.02297596462616509</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03375573176303092</v>
+        <v>0.03494583656985401</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>84</v>
@@ -3667,19 +3667,19 @@
         <v>87953</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>69603</v>
+        <v>70288</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>107471</v>
+        <v>109404</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02493860391125886</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01973543192912217</v>
+        <v>0.01992978054625498</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03047279048244164</v>
+        <v>0.0310207263754795</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>174</v>
@@ -3688,19 +3688,19 @@
         <v>181998</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>158419</v>
+        <v>155593</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>210328</v>
+        <v>209403</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02639923698091819</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02297900881362871</v>
+        <v>0.02256901766465233</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03050848952484137</v>
+        <v>0.03037441403968747</v>
       </c>
     </row>
     <row r="22">
@@ -3717,19 +3717,19 @@
         <v>959935</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>906329</v>
+        <v>912217</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1012680</v>
+        <v>1020262</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2850770484509431</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2691573985930917</v>
+        <v>0.2709059232208409</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3007410588888472</v>
+        <v>0.30299287411523</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1009</v>
@@ -3738,19 +3738,19 @@
         <v>1087235</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1029706</v>
+        <v>1032391</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1145411</v>
+        <v>1143507</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3082787183666036</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2919666119768575</v>
+        <v>0.2927281566870429</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3247742841957527</v>
+        <v>0.3242343557532542</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1916</v>
@@ -3759,19 +3759,19 @@
         <v>2047170</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1972567</v>
+        <v>1969550</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2128083</v>
+        <v>2127811</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2969462951254599</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2861249212802462</v>
+        <v>0.28568736495908</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3086828509436397</v>
+        <v>0.3086434998718496</v>
       </c>
     </row>
     <row r="23">
@@ -3788,19 +3788,19 @@
         <v>531159</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>487070</v>
+        <v>486293</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>574616</v>
+        <v>577413</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1577411984382915</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1446478076974468</v>
+        <v>0.1444171444689532</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1706469424565966</v>
+        <v>0.1714775809558127</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>484</v>
@@ -3809,19 +3809,19 @@
         <v>512901</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>467979</v>
+        <v>475078</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>556264</v>
+        <v>557471</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1454299882411298</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1326926818138562</v>
+        <v>0.1347053097625187</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1577253191751802</v>
+        <v>0.1580675044897362</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>969</v>
@@ -3830,19 +3830,19 @@
         <v>1044061</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>991142</v>
+        <v>986014</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1117818</v>
+        <v>1103580</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1514431694074885</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1437672455063174</v>
+        <v>0.1430234264647324</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1621419054527355</v>
+        <v>0.1600766023981002</v>
       </c>
     </row>
     <row r="24">
@@ -4103,19 +4103,19 @@
         <v>366995</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>344869</v>
+        <v>346966</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>388199</v>
+        <v>386203</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7388508503573149</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6943052199793591</v>
+        <v>0.6985272832539884</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7815389351101494</v>
+        <v>0.7775210024559371</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>621</v>
@@ -4124,19 +4124,19 @@
         <v>446559</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>421213</v>
+        <v>424541</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>463542</v>
+        <v>466100</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7175210077050121</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6767966568806074</v>
+        <v>0.6821442129706374</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7448104787323599</v>
+        <v>0.7489204134444506</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>951</v>
@@ -4145,19 +4145,19 @@
         <v>813554</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>782500</v>
+        <v>781886</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>839212</v>
+        <v>841586</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7269884511929926</v>
+        <v>0.7269884511929925</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6992391984849132</v>
+        <v>0.6986906044580681</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7499161676498999</v>
+        <v>0.7520374489467736</v>
       </c>
     </row>
     <row r="5">
@@ -4174,19 +4174,19 @@
         <v>9133</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4501</v>
+        <v>4113</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17114</v>
+        <v>16762</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.01838682687419773</v>
+        <v>0.01838682687419774</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.009061810305453954</v>
+        <v>0.008280793884323965</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03445540918251485</v>
+        <v>0.03374569438584532</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -4195,19 +4195,19 @@
         <v>19801</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12534</v>
+        <v>12598</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>32472</v>
+        <v>31479</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03181626745925555</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02013876340778008</v>
+        <v>0.02024165132579061</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05217608418971432</v>
+        <v>0.0505805694557074</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>34</v>
@@ -4216,19 +4216,19 @@
         <v>28934</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>19505</v>
+        <v>19734</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>41233</v>
+        <v>41336</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.02585548885030041</v>
+        <v>0.0258554888503004</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01742915686213639</v>
+        <v>0.0176341156870225</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03684539535706487</v>
+        <v>0.03693789944230974</v>
       </c>
     </row>
     <row r="6">
@@ -4245,19 +4245,19 @@
         <v>37639</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>27178</v>
+        <v>27331</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>51967</v>
+        <v>50552</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07577706436827021</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05471544515004134</v>
+        <v>0.05502367265669611</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1046224380382745</v>
+        <v>0.1017735708907215</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>104</v>
@@ -4266,19 +4266,19 @@
         <v>76417</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>64536</v>
+        <v>63692</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>92725</v>
+        <v>92662</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1227845604093468</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1036945781800636</v>
+        <v>0.1023391198035926</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1489883923479196</v>
+        <v>0.1488872034866898</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>142</v>
@@ -4287,19 +4287,19 @@
         <v>114056</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>96733</v>
+        <v>93952</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>136407</v>
+        <v>133621</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1019198583327795</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08643990665996251</v>
+        <v>0.08395522007137977</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1218927814991901</v>
+        <v>0.1194029171615141</v>
       </c>
     </row>
     <row r="7">
@@ -4316,19 +4316,19 @@
         <v>82943</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>64949</v>
+        <v>65072</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>102728</v>
+        <v>101957</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1669852584002172</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1307587964870905</v>
+        <v>0.1310051311937331</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.206816469883038</v>
+        <v>0.2052648278266076</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>110</v>
@@ -4337,19 +4337,19 @@
         <v>79587</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>66475</v>
+        <v>65655</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>96753</v>
+        <v>94701</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1278781644263855</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1068109137380711</v>
+        <v>0.105493780052783</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1554606584592544</v>
+        <v>0.1521632320635718</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>185</v>
@@ -4358,19 +4358,19 @@
         <v>162530</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>142266</v>
+        <v>140864</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>187223</v>
+        <v>189249</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1452362016239275</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1271281156187868</v>
+        <v>0.1258755341538795</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1673020833126414</v>
+        <v>0.1691119567772262</v>
       </c>
     </row>
     <row r="8">
@@ -4391,19 +4391,19 @@
         <v>699538</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>666577</v>
+        <v>665009</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>732857</v>
+        <v>728748</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7285815987858776</v>
+        <v>0.7285815987858775</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6942514963729838</v>
+        <v>0.6926190523331598</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7632835163820931</v>
+        <v>0.7590040969580777</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1187</v>
@@ -4412,19 +4412,19 @@
         <v>826649</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>801990</v>
+        <v>800368</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>852803</v>
+        <v>850930</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7412592327680864</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7191474397415195</v>
+        <v>0.7176926613480588</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7647111054831011</v>
+        <v>0.7630314802419644</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1869</v>
@@ -4433,19 +4433,19 @@
         <v>1526187</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1484925</v>
+        <v>1486688</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1564512</v>
+        <v>1565990</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7353940230206135</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7155117712940765</v>
+        <v>0.7163613795575275</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7538607734353764</v>
+        <v>0.7545727812354135</v>
       </c>
     </row>
     <row r="9">
@@ -4462,19 +4462,19 @@
         <v>30555</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>21272</v>
+        <v>21162</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>46695</v>
+        <v>44732</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03182394857957872</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02215557904609298</v>
+        <v>0.022040754436724</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04863333086415228</v>
+        <v>0.0465892430407577</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>55</v>
@@ -4483,19 +4483,19 @@
         <v>35166</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>26036</v>
+        <v>25884</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>45584</v>
+        <v>44751</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03153313871960453</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02334671826602321</v>
+        <v>0.02320997957647132</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0408755524761477</v>
+        <v>0.04012802613366792</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>88</v>
@@ -4504,19 +4504,19 @@
         <v>65721</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>51410</v>
+        <v>52679</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>80534</v>
+        <v>83806</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03166767966216333</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0247719855637163</v>
+        <v>0.02538347155222484</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03880537401026098</v>
+        <v>0.04038175918729058</v>
       </c>
     </row>
     <row r="10">
@@ -4533,19 +4533,19 @@
         <v>113954</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>90721</v>
+        <v>90772</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>140232</v>
+        <v>141537</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1186853169480667</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0944873141497745</v>
+        <v>0.09454047813691265</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1460541325347096</v>
+        <v>0.1474137079657855</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>176</v>
@@ -4554,19 +4554,19 @@
         <v>122866</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>105304</v>
+        <v>105826</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>143636</v>
+        <v>143624</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1101742273471056</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09442657848340756</v>
+        <v>0.09489457848586054</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1287992517354317</v>
+        <v>0.1287884046903479</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>272</v>
@@ -4575,19 +4575,19 @@
         <v>236820</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>211707</v>
+        <v>207585</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>270167</v>
+        <v>267865</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1141118174178732</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1020109287720489</v>
+        <v>0.1000250085027907</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1301802003385207</v>
+        <v>0.1290708902503162</v>
       </c>
     </row>
     <row r="11">
@@ -4604,19 +4604,19 @@
         <v>116089</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>92974</v>
+        <v>95156</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>139033</v>
+        <v>139855</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1209091356864772</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09683442359976256</v>
+        <v>0.09910707170715412</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1448051881329945</v>
+        <v>0.1456609902054707</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>188</v>
@@ -4625,19 +4625,19 @@
         <v>130515</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>111702</v>
+        <v>111537</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>149539</v>
+        <v>147884</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1170334011652035</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1001634553386651</v>
+        <v>0.1000156876058726</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1340922263272881</v>
+        <v>0.1326080162895968</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>287</v>
@@ -4646,19 +4646,19 @@
         <v>246605</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>216022</v>
+        <v>216984</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>276464</v>
+        <v>277797</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.11882647989935</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1040902769644646</v>
+        <v>0.1045539944386141</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1332144563690341</v>
+        <v>0.1338565870638088</v>
       </c>
     </row>
     <row r="12">
@@ -4679,19 +4679,19 @@
         <v>668669</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>632813</v>
+        <v>631592</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>701758</v>
+        <v>698774</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6397032438017485</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6054008406091357</v>
+        <v>0.6042327997018653</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6713584676123132</v>
+        <v>0.6685046102701456</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>946</v>
@@ -4700,19 +4700,19 @@
         <v>644942</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>615134</v>
+        <v>616301</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>670334</v>
+        <v>669780</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.6176707914057599</v>
+        <v>0.61767079140576</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.589123339039505</v>
+        <v>0.5902415729468755</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6419898766389398</v>
+        <v>0.6414587756472712</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1616</v>
@@ -4721,19 +4721,19 @@
         <v>1313611</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1267879</v>
+        <v>1267001</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1352346</v>
+        <v>1354559</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6286929725353422</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6068060423856334</v>
+        <v>0.6063854255679166</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6472316273919432</v>
+        <v>0.6482906958388737</v>
       </c>
     </row>
     <row r="13">
@@ -4750,19 +4750,19 @@
         <v>69173</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>54023</v>
+        <v>54855</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>88363</v>
+        <v>88910</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06617668756264532</v>
+        <v>0.0661766875626453</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05168253141173352</v>
+        <v>0.05247866506838434</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08453526623274052</v>
+        <v>0.0850581867331187</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>118</v>
@@ -4771,19 +4771,19 @@
         <v>83482</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>70107</v>
+        <v>68658</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>99834</v>
+        <v>99764</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07995179450531366</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06714290443881063</v>
+        <v>0.06575524708559011</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09561281161453115</v>
+        <v>0.09554522388589098</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>190</v>
@@ -4792,19 +4792,19 @@
         <v>152655</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>131431</v>
+        <v>131197</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>176351</v>
+        <v>174685</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07306051789785341</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06290293774098998</v>
+        <v>0.06279083786748596</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08440164322298911</v>
+        <v>0.08360387615916973</v>
       </c>
     </row>
     <row r="14">
@@ -4821,19 +4821,19 @@
         <v>200188</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>173673</v>
+        <v>171687</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>228224</v>
+        <v>227003</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1915164555951903</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1661495693743699</v>
+        <v>0.1642493153114835</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2183376734843681</v>
+        <v>0.2171695271812703</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>286</v>
@@ -4842,19 +4842,19 @@
         <v>197851</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>176475</v>
+        <v>175867</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>222742</v>
+        <v>220883</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1894854023667734</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1690132640711406</v>
+        <v>0.1684307844932832</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2133240067423511</v>
+        <v>0.2115428814551115</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>482</v>
@@ -4863,19 +4863,19 @@
         <v>398040</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>363957</v>
+        <v>362056</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>433850</v>
+        <v>432597</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1905014779340811</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.174189739775678</v>
+        <v>0.1732795556911375</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2076400929599422</v>
+        <v>0.2070403664086455</v>
       </c>
     </row>
     <row r="15">
@@ -4892,19 +4892,19 @@
         <v>107250</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>86211</v>
+        <v>86028</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>131567</v>
+        <v>131301</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.102603613040416</v>
+        <v>0.1026036130404159</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.08247622447412382</v>
+        <v>0.0823013226321915</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1258672636166642</v>
+        <v>0.1256131277632526</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>163</v>
@@ -4913,19 +4913,19 @@
         <v>117876</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>100589</v>
+        <v>101799</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>137016</v>
+        <v>136474</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.112892011722153</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.09633558230174941</v>
+        <v>0.09749416586438746</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.131222358552254</v>
+        <v>0.1307034265867334</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>253</v>
@@ -4934,19 +4934,19 @@
         <v>225126</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>199527</v>
+        <v>197163</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>256241</v>
+        <v>257200</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.1077450316327233</v>
+        <v>0.1077450316327232</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.09549339327577278</v>
+        <v>0.09436223996557901</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1226367776649851</v>
+        <v>0.1230958574844967</v>
       </c>
     </row>
     <row r="16">
@@ -4967,19 +4967,19 @@
         <v>491665</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>454615</v>
+        <v>453860</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>524578</v>
+        <v>525358</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5059375793961777</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4678123346581326</v>
+        <v>0.467035774014055</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5398061620893615</v>
+        <v>0.5406089040798384</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>754</v>
@@ -4988,19 +4988,19 @@
         <v>477694</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>450215</v>
+        <v>450246</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>505899</v>
+        <v>504185</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5261827062591363</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4959149782565651</v>
+        <v>0.4959489046273282</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5572502856680176</v>
+        <v>0.555363250271714</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1255</v>
@@ -5009,19 +5009,19 @@
         <v>969358</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>925281</v>
+        <v>920047</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1012747</v>
+        <v>1010386</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5157157920437541</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4922660267697069</v>
+        <v>0.4894813477802001</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5387990982444835</v>
+        <v>0.5375433098077307</v>
       </c>
     </row>
     <row r="17">
@@ -5038,19 +5038,19 @@
         <v>96407</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>79346</v>
+        <v>79454</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>115746</v>
+        <v>117378</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.09920533925731567</v>
+        <v>0.0992053392573157</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08164955872072382</v>
+        <v>0.08176052714499604</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1191057712207732</v>
+        <v>0.1207857277814977</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>133</v>
@@ -5059,19 +5059,19 @@
         <v>88090</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>73948</v>
+        <v>74369</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>105288</v>
+        <v>103130</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09703132926613173</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08145428633161603</v>
+        <v>0.08191843591894535</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1159755484422341</v>
+        <v>0.1135986342275773</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>240</v>
@@ -5080,19 +5080,19 @@
         <v>184496</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>160917</v>
+        <v>161883</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>209364</v>
+        <v>208845</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09815531215026668</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08561085548004531</v>
+        <v>0.08612461468595292</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1113850822619964</v>
+        <v>0.1111091480154075</v>
       </c>
     </row>
     <row r="18">
@@ -5109,19 +5109,19 @@
         <v>264345</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>234186</v>
+        <v>233667</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>298332</v>
+        <v>298128</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2720184345923908</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2409844060990787</v>
+        <v>0.2404508491903718</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3069921557096656</v>
+        <v>0.3067828269342566</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>285</v>
@@ -5130,19 +5130,19 @@
         <v>216636</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>192381</v>
+        <v>193820</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>241300</v>
+        <v>242380</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2386258280606564</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2119084238779808</v>
+        <v>0.2134941748709413</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2657937297602856</v>
+        <v>0.2669833745062793</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>523</v>
@@ -5151,19 +5151,19 @@
         <v>480981</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>442106</v>
+        <v>442111</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>522823</v>
+        <v>525928</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2558901085149898</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2352081863767887</v>
+        <v>0.2352109393476713</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2781509824360244</v>
+        <v>0.279802884566715</v>
       </c>
     </row>
     <row r="19">
@@ -5180,19 +5180,19 @@
         <v>119373</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>97860</v>
+        <v>97502</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>146363</v>
+        <v>146293</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1228386467541158</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1007009012080737</v>
+        <v>0.1003323487243533</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1506118316326467</v>
+        <v>0.1505396542297928</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>148</v>
@@ -5201,19 +5201,19 @@
         <v>125428</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>106638</v>
+        <v>106423</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>149452</v>
+        <v>149736</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1381601364140755</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1174618766132858</v>
+        <v>0.1172252928033405</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1646224736171753</v>
+        <v>0.1649354099872659</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>247</v>
@@ -5222,19 +5222,19 @@
         <v>244802</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>213287</v>
+        <v>213908</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>281409</v>
+        <v>277866</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1302387872909894</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1134725680713002</v>
+        <v>0.1138028953884191</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1497144724389624</v>
+        <v>0.1478295831858495</v>
       </c>
     </row>
     <row r="20">
@@ -5255,19 +5255,19 @@
         <v>2226868</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2162959</v>
+        <v>2164960</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2286789</v>
+        <v>2293195</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6410248167314668</v>
+        <v>0.6410248167314667</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6226280646930467</v>
+        <v>0.6232039763955401</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6582738820277214</v>
+        <v>0.6601176332749851</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3508</v>
@@ -5276,19 +5276,19 @@
         <v>2395843</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2342907</v>
+        <v>2341471</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2443759</v>
+        <v>2448097</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6493578338954388</v>
+        <v>0.6493578338954389</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6350103011586297</v>
+        <v>0.6346208885930202</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.662344722222786</v>
+        <v>0.6635203349922005</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5691</v>
@@ -5297,19 +5297,19 @@
         <v>4622711</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4535992</v>
+        <v>4534607</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4704843</v>
+        <v>4702401</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6453167484337056</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.633210964314609</v>
+        <v>0.6330177199852822</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6567821746420145</v>
+        <v>0.6564412388730969</v>
       </c>
     </row>
     <row r="21">
@@ -5326,19 +5326,19 @@
         <v>205268</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>179427</v>
+        <v>178814</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>234460</v>
+        <v>232845</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05908838246249274</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05164979234587711</v>
+        <v>0.05147327372540732</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06749138668536436</v>
+        <v>0.06702662124767296</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>330</v>
@@ -5347,19 +5347,19 @@
         <v>226538</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>201605</v>
+        <v>198484</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>252129</v>
+        <v>250887</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06139985609418821</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05464207681128726</v>
+        <v>0.05379602096973134</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06833576542496091</v>
+        <v>0.06799932524661335</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>552</v>
@@ -5368,19 +5368,19 @@
         <v>431807</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>394932</v>
+        <v>393928</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>473096</v>
+        <v>469108</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.06027891006654655</v>
+        <v>0.06027891006654654</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05513130475458587</v>
+        <v>0.05499113670962902</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.06604275970619841</v>
+        <v>0.06548608175447497</v>
       </c>
     </row>
     <row r="22">
@@ -5397,19 +5397,19 @@
         <v>616127</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>565704</v>
+        <v>565272</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>668761</v>
+        <v>666372</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1773578226419302</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1628431028725045</v>
+        <v>0.1627189777601765</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1925090901797555</v>
+        <v>0.1918215430978071</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>851</v>
@@ -5418,19 +5418,19 @@
         <v>613770</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>571468</v>
+        <v>570866</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>658244</v>
+        <v>657042</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.166353193026081</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1548878405291819</v>
+        <v>0.1547246986315277</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1784073928372764</v>
+        <v>0.1780814822659544</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1419</v>
@@ -5439,19 +5439,19 @@
         <v>1229896</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1170441</v>
+        <v>1162619</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1295848</v>
+        <v>1291996</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1716898733517422</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1633900394196369</v>
+        <v>0.1622981220249794</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.180896493619221</v>
+        <v>0.1803588482355636</v>
       </c>
     </row>
     <row r="23">
@@ -5468,19 +5468,19 @@
         <v>425656</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>390417</v>
+        <v>384504</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>474950</v>
+        <v>470489</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1225289781641102</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.112385065192179</v>
+        <v>0.1106831401609245</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1367187957505993</v>
+        <v>0.1354347461946351</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>609</v>
@@ -5489,19 +5489,19 @@
         <v>453407</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>414687</v>
+        <v>419637</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>491842</v>
+        <v>496019</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.122889116984292</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1123948201445624</v>
+        <v>0.113736417971294</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1333063734899279</v>
+        <v>0.1344384842253652</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>972</v>
@@ -5510,19 +5510,19 @@
         <v>879062</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>818109</v>
+        <v>825138</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>936132</v>
+        <v>939864</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1227144681480056</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1142056431988484</v>
+        <v>0.1151868681984901</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1306812397524632</v>
+        <v>0.1312021567656483</v>
       </c>
     </row>
     <row r="24">
